--- a/biology/Botanique/Bromus_rubens/Bromus_rubens.xlsx
+++ b/biology/Botanique/Bromus_rubens/Bromus_rubens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bromus rubens, le brome rougeâtre, est une espèce de plantes monocotylédones de la famille des Poaceae, originaire du bassin méditerranéen.
 C'est une plante herbacée annuelle, qui se rencontre le long des routes, dans les terrains vagues, les parcours et les champs cultivés. Présente en Europe méridionale, en Afrique du Nord et au Proche-Orient, elle s'est naturalisée en Amérique du Nord et en Australie.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (21 février 2016)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (21 février 2016) :
 Anisantha rubens (L.) Nevski,
 Bromus madritensis var. rubens (L.) Husn.,
 Bromus madritensis subsp. rubens (L.) Husn.,
@@ -524,12 +541,46 @@
 Bromus scoparius var. rubens (L.) St.-Amans,
 Bromus sterilis var. rubens (L.) Kuntze,
 Festuca rubens (L.) Pers.,
-Zerna rubens (L.) Grossh.
-Liste des sous-espèces et variétés
-Selon World Checklist of Selected Plant Families (WCSP)  (20 février 2016)[2] :
+Zerna rubens (L.) Grossh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bromus_rubens</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromus_rubens</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 février 2016) :
 sous-espèce Bromus rubens subsp. kunkelii (H.Scholz) H.Scholz (1996)
 sous-espèce Bromus rubens subsp. rubens
-Selon Tropicos                                           (20 février 2016)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 février 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Bromus rubens subsp. fasciculatus (C. Presl) Trab.
 variété Bromus rubens var. glabriglumis Maire
 variété Bromus rubens var. rigidus (Roth) Mutel
